--- a/data/trans_bre/P2A_enfcro_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 13,11</t>
+          <t>-1,37; 13,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 9,7</t>
+          <t>-6,18; 8,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 12,64</t>
+          <t>-2,21; 14,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 8,24</t>
+          <t>-3,28; 8,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 33,0</t>
+          <t>-2,91; 33,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 20,4</t>
+          <t>-11,93; 18,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 29,98</t>
+          <t>-4,61; 35,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 28,96</t>
+          <t>-9,45; 27,99</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 15,47</t>
+          <t>0,09; 15,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 18,14</t>
+          <t>1,46; 17,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 9,65</t>
+          <t>-5,29; 9,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 3,61</t>
+          <t>-8,32; 3,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 39,16</t>
+          <t>0,22; 38,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 38,36</t>
+          <t>2,35; 37,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 22,89</t>
+          <t>-10,35; 22,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 12,72</t>
+          <t>-23,41; 11,74</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 19,66</t>
+          <t>1,41; 18,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 20,02</t>
+          <t>5,49; 19,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 19,69</t>
+          <t>2,09; 19,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,46; 43,19</t>
+          <t>9,76; 40,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 45,65</t>
+          <t>3,07; 43,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,38; 36,39</t>
+          <t>9,08; 36,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 37,82</t>
+          <t>3,46; 37,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31,65; 583,32</t>
+          <t>29,46; 473,68</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,5; 15,76</t>
+          <t>6,28; 15,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 10,98</t>
+          <t>1,28; 10,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 5,05</t>
+          <t>-3,93; 5,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 37,77</t>
+          <t>-1,37; 37,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,86; 34,14</t>
+          <t>12,53; 32,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 19,95</t>
+          <t>2,16; 19,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 9,84</t>
+          <t>-7,13; 11,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 107,08</t>
+          <t>-3,86; 106,45</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,68; 18,1</t>
+          <t>5,87; 19,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,99; 22,7</t>
+          <t>11,51; 22,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,96; 22,48</t>
+          <t>11,47; 22,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 11,61</t>
+          <t>-7,7; 11,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,04; 41,41</t>
+          <t>10,52; 44,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,24; 42,76</t>
+          <t>19,18; 43,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,79; 45,29</t>
+          <t>20,93; 45,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 32,51</t>
+          <t>-16,89; 32,69</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>37,42; 47,92</t>
+          <t>37,2; 48,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,96; 41,68</t>
+          <t>29,36; 42,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,59; 42,1</t>
+          <t>28,58; 41,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,01; 28,88</t>
+          <t>8,91; 29,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>131,86; 248,37</t>
+          <t>128,1; 245,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>67,11; 132,47</t>
+          <t>68,82; 136,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>80,68; 160,23</t>
+          <t>75,3; 151,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,57; 171,12</t>
+          <t>25,51; 190,38</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,34; 18,31</t>
+          <t>13,57; 18,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,3; 16,22</t>
+          <t>11,37; 16,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,86; 13,8</t>
+          <t>8,79; 13,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,36; 23,29</t>
+          <t>5,25; 23,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,17; 42,51</t>
+          <t>29,58; 42,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,45; 30,96</t>
+          <t>20,61; 30,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,27; 28,89</t>
+          <t>17,45; 28,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,91; 80,01</t>
+          <t>15,56; 89,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_enfcro_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
